--- a/datos/archivo.xlsx
+++ b/datos/archivo.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programacion\python\calidad\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD3CA2-E423-4F5B-9821-F3C427AC8C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0AD67-3D14-4431-A246-6D006E02CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5890" yWindow="3710" windowWidth="28810" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6910" yWindow="4730" windowWidth="28810" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tamaño del lote" sheetId="4" r:id="rId1"/>
     <sheet name="Registro1" sheetId="1" r:id="rId2"/>
     <sheet name="Registro2" sheetId="2" r:id="rId3"/>
     <sheet name="Tamaño Panes" sheetId="3" r:id="rId4"/>
+    <sheet name="PanesDefecto" sheetId="5" r:id="rId5"/>
+    <sheet name="PerdidaPan" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Cantidad de panes</t>
   </si>
@@ -106,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +124,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -190,6 +199,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0E78A2-794E-4AA6-BFCD-F3AAC0980C48}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1325,4 +1343,448 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21886-FD11-4B34-AAB3-5B82E6A0CFB6}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A930F40-C6A5-4BAE-9B86-1909360262CF}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datos/archivo.xlsx
+++ b/datos/archivo.xlsx
@@ -5,32 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programacion\python\calidad\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaka\OneDrive\Escritorio\programacion\python\calidad\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0AD67-3D14-4431-A246-6D006E02CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD91E0B-B17F-475C-803F-E95253247A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6910" yWindow="4730" windowWidth="28810" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tamaño del lote" sheetId="4" r:id="rId1"/>
-    <sheet name="Registro1" sheetId="1" r:id="rId2"/>
-    <sheet name="Registro2" sheetId="2" r:id="rId3"/>
-    <sheet name="Tamaño Panes" sheetId="3" r:id="rId4"/>
+    <sheet name="Tamaño del lote" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Registro1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Registro2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Tamaño Panes" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="PanesDefecto" sheetId="5" r:id="rId5"/>
-    <sheet name="PerdidaPan" sheetId="6" r:id="rId6"/>
+    <sheet name="PanesDefecto (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="PerdidaPan" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
   <si>
     <t>Cantidad de panes</t>
   </si>
@@ -108,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +139,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -136,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -186,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -200,15 +225,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,12 +521,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -508,7 +534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -516,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -524,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -540,7 +566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,7 +574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -556,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -564,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -572,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -594,9 +620,9 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -628,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -660,7 +686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -692,7 +718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,7 +750,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,7 +782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,7 +814,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,7 +846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,7 +878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,7 +910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,9 +956,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -964,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -996,7 +1022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1118,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,9 +1292,9 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>14</v>
       </c>
@@ -1284,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -1292,7 +1318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>14</v>
       </c>
@@ -1300,7 +1326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>14</v>
       </c>
@@ -1308,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -1316,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -1324,7 +1350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>14</v>
       </c>
@@ -1332,7 +1358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -1347,219 +1373,222 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21886-FD11-4B34-AAB3-5B82E6A0CFB6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
         <v>7</v>
       </c>
-      <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>5</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6</v>
-      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,218 +1597,666 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE35ED-48F5-4893-B2CB-E324336DB59C}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>4</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>4</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>4</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A930F40-C6A5-4BAE-9B86-1909360262CF}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7">
-        <v>3</v>
-      </c>
-      <c r="I2" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
         <v>7</v>
       </c>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
         <v>8</v>
       </c>
     </row>

--- a/datos/archivo.xlsx
+++ b/datos/archivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaka\OneDrive\Escritorio\programacion\python\calidad\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD91E0B-B17F-475C-803F-E95253247A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B0E2D0-8524-4B14-A474-5DEBE4932777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tamaño del lote" sheetId="4" state="hidden" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Registro2" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Tamaño Panes" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="PanesDefecto" sheetId="5" r:id="rId5"/>
-    <sheet name="PanesDefecto (2)" sheetId="7" r:id="rId6"/>
-    <sheet name="PerdidaPan" sheetId="6" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId6"/>
+    <sheet name="PanesDefecto (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="PerdidaPan" sheetId="6" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
   <si>
     <t>Cantidad de panes</t>
   </si>
@@ -118,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +155,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -235,6 +243,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,6 +1608,224 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4BCC1-5E94-4BD2-9F23-FC1B95ADC158}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE35ED-48F5-4893-B2CB-E324336DB59C}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -2044,11 +2273,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A930F40-C6A5-4BAE-9B86-1909360262CF}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2264,4 +2493,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9F682F-E4B4-4655-95EB-E54785027C45}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>